--- a/dragon-verse/Excels/Sound_音效表.xlsx
+++ b/dragon-verse/Excels/Sound_音效表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">游泳音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bw跳转音效</t>
   </si>
 </sst>
 </file>
@@ -334,8 +337,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.56640625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1436,7 +1439,27 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>326661</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
